--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mdk-Itga4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mdk-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H2">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I2">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J2">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.401300088170972</v>
+        <v>0.403827</v>
       </c>
       <c r="N2">
-        <v>0.401300088170972</v>
+        <v>1.211481</v>
       </c>
       <c r="O2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q2">
-        <v>15.24305351452267</v>
+        <v>0.92947110673</v>
       </c>
       <c r="R2">
-        <v>15.24305351452267</v>
+        <v>8.365239960570001</v>
       </c>
       <c r="S2">
-        <v>0.004295252369894308</v>
+        <v>0.0002364023098047048</v>
       </c>
       <c r="T2">
-        <v>0.004295252369894308</v>
+        <v>0.0002364023098047048</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H3">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I3">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J3">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>23.4340792702359</v>
+        <v>0.137516</v>
       </c>
       <c r="N3">
-        <v>23.4340792702359</v>
+        <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q3">
-        <v>890.1242110557071</v>
+        <v>0.3165146181733333</v>
       </c>
       <c r="R3">
-        <v>890.1242110557071</v>
+        <v>2.848631563560001</v>
       </c>
       <c r="S3">
-        <v>0.2508229813268522</v>
+        <v>8.050254201701171E-05</v>
       </c>
       <c r="T3">
-        <v>0.2508229813268522</v>
+        <v>8.05025420170117E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H4">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I4">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J4">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.8685390322163</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N4">
-        <v>50.8685390322163</v>
+        <v>70.309682</v>
       </c>
       <c r="O4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q4">
-        <v>1932.199582132427</v>
+        <v>53.94291610217111</v>
       </c>
       <c r="R4">
-        <v>1932.199582132427</v>
+        <v>485.48624491954</v>
       </c>
       <c r="S4">
-        <v>0.5444634059938211</v>
+        <v>0.01371987775824324</v>
       </c>
       <c r="T4">
-        <v>0.5444634059938211</v>
+        <v>0.01371987775824324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>37.984176838826</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H5">
-        <v>37.984176838826</v>
+        <v>6.90497</v>
       </c>
       <c r="I5">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J5">
-        <v>0.8040995731395441</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.422104904506321</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N5">
-        <v>0.422104904506321</v>
+        <v>161.00704</v>
       </c>
       <c r="O5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q5">
-        <v>16.03330733730386</v>
+        <v>123.5276423320889</v>
       </c>
       <c r="R5">
-        <v>16.03330733730386</v>
+        <v>1111.7487809888</v>
       </c>
       <c r="S5">
-        <v>0.004517933448976333</v>
+        <v>0.03141810408154854</v>
       </c>
       <c r="T5">
-        <v>0.004517933448976333</v>
+        <v>0.03141810408154853</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>3.70544123655033</v>
+        <v>2.301656666666667</v>
       </c>
       <c r="H6">
-        <v>3.70544123655033</v>
+        <v>6.90497</v>
       </c>
       <c r="I6">
-        <v>0.07844170822094022</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="J6">
-        <v>0.07844170822094022</v>
+        <v>0.04570678505973542</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.401300088170972</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N6">
-        <v>0.401300088170972</v>
+        <v>1.290893</v>
       </c>
       <c r="O6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q6">
-        <v>1.486993894940003</v>
+        <v>0.9903974931344445</v>
       </c>
       <c r="R6">
-        <v>1.486993894940003</v>
+        <v>8.913577438210002</v>
       </c>
       <c r="S6">
-        <v>0.0004190114562790357</v>
+        <v>0.0002518983681219308</v>
       </c>
       <c r="T6">
-        <v>0.0004190114562790357</v>
+        <v>0.0002518983681219307</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H7">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I7">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J7">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.4340792702359</v>
+        <v>0.403827</v>
       </c>
       <c r="N7">
-        <v>23.4340792702359</v>
+        <v>1.211481</v>
       </c>
       <c r="O7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q7">
-        <v>86.83360366852138</v>
+        <v>15.471034503824</v>
       </c>
       <c r="R7">
-        <v>86.83360366852138</v>
+        <v>139.239310534416</v>
       </c>
       <c r="S7">
-        <v>0.02446834169993131</v>
+        <v>0.003934913377393135</v>
       </c>
       <c r="T7">
-        <v>0.02446834169993131</v>
+        <v>0.003934913377393133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H8">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I8">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J8">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>50.8685390322163</v>
+        <v>0.137516</v>
       </c>
       <c r="N8">
-        <v>50.8685390322163</v>
+        <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q8">
-        <v>188.4903821730443</v>
+        <v>5.268381710058667</v>
       </c>
       <c r="R8">
-        <v>188.4903821730443</v>
+        <v>47.415435390528</v>
       </c>
       <c r="S8">
-        <v>0.05311362057213149</v>
+        <v>0.00133996376667631</v>
       </c>
       <c r="T8">
-        <v>0.05311362057213149</v>
+        <v>0.00133996376667631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.70544123655033</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H9">
-        <v>3.70544123655033</v>
+        <v>114.933136</v>
       </c>
       <c r="I9">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J9">
-        <v>0.07844170822094022</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.422104904506321</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N9">
-        <v>0.422104904506321</v>
+        <v>70.309682</v>
       </c>
       <c r="O9">
-        <v>0.005618624359339496</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P9">
-        <v>0.005618624359339496</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q9">
-        <v>1.564084919307861</v>
+        <v>897.8791381580835</v>
       </c>
       <c r="R9">
-        <v>1.564084919307861</v>
+        <v>8080.912243422752</v>
       </c>
       <c r="S9">
-        <v>0.0004407344925983759</v>
+        <v>0.228367187155273</v>
       </c>
       <c r="T9">
-        <v>0.0004407344925983759</v>
+        <v>0.2283671871552729</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.70760760489815</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H10">
-        <v>2.70760760489815</v>
+        <v>114.933136</v>
       </c>
       <c r="I10">
-        <v>0.05731823881734217</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J10">
-        <v>0.05731823881734217</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.401300088170972</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N10">
-        <v>0.401300088170972</v>
+        <v>161.00704</v>
       </c>
       <c r="O10">
-        <v>0.005341692140345045</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P10">
-        <v>0.005341692140345045</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q10">
-        <v>1.086563170578022</v>
+        <v>2056.116002808605</v>
       </c>
       <c r="R10">
-        <v>1.086563170578022</v>
+        <v>18505.04402527744</v>
       </c>
       <c r="S10">
-        <v>0.0003061763857890169</v>
+        <v>0.522953934523506</v>
       </c>
       <c r="T10">
-        <v>0.0003061763857890169</v>
+        <v>0.5229539345235059</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.70760760489815</v>
+        <v>38.31104533333333</v>
       </c>
       <c r="H11">
-        <v>2.70760760489815</v>
+        <v>114.933136</v>
       </c>
       <c r="I11">
-        <v>0.05731823881734217</v>
+        <v>0.7607888438897402</v>
       </c>
       <c r="J11">
-        <v>0.05731823881734217</v>
+        <v>0.7607888438897401</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.4340792702359</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N11">
-        <v>23.4340792702359</v>
+        <v>1.290893</v>
       </c>
       <c r="O11">
-        <v>0.3119302505627921</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P11">
-        <v>0.3119302505627921</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q11">
-        <v>63.45029124587682</v>
+        <v>16.48515341449422</v>
       </c>
       <c r="R11">
-        <v>63.45029124587682</v>
+        <v>148.366380730448</v>
       </c>
       <c r="S11">
-        <v>0.0178792925961115</v>
+        <v>0.00419284506689181</v>
       </c>
       <c r="T11">
-        <v>0.0178792925961115</v>
+        <v>0.004192845066891809</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.70760760489815</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H12">
-        <v>2.70760760489815</v>
+        <v>11.849354</v>
       </c>
       <c r="I12">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J12">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.8685390322163</v>
+        <v>0.403827</v>
       </c>
       <c r="N12">
-        <v>50.8685390322163</v>
+        <v>1.211481</v>
       </c>
       <c r="O12">
-        <v>0.6771094329375232</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P12">
-        <v>0.6771094329375232</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q12">
-        <v>137.7320431336872</v>
+        <v>1.595029692586</v>
       </c>
       <c r="R12">
-        <v>137.7320431336872</v>
+        <v>14.355267233274</v>
       </c>
       <c r="S12">
-        <v>0.03881072018258809</v>
+        <v>0.0004056809305896505</v>
       </c>
       <c r="T12">
-        <v>0.03881072018258809</v>
+        <v>0.0004056809305896504</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.70760760489815</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H13">
-        <v>2.70760760489815</v>
+        <v>11.849354</v>
       </c>
       <c r="I13">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J13">
-        <v>0.05731823881734217</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.422104904506321</v>
+        <v>0.137516</v>
       </c>
       <c r="N13">
-        <v>0.422104904506321</v>
+        <v>0.412548</v>
       </c>
       <c r="O13">
-        <v>0.005618624359339496</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P13">
-        <v>0.005618624359339496</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q13">
-        <v>1.142894449506122</v>
+        <v>0.5431585882213334</v>
       </c>
       <c r="R13">
-        <v>1.142894449506122</v>
+        <v>4.888427293992001</v>
       </c>
       <c r="S13">
-        <v>0.0003220496528535573</v>
+        <v>0.0001381473226182657</v>
       </c>
       <c r="T13">
-        <v>0.0003220496528535573</v>
+        <v>0.0001381473226182657</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.84092505088403</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H14">
-        <v>2.84092505088403</v>
+        <v>11.849354</v>
       </c>
       <c r="I14">
-        <v>0.06014047982217352</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J14">
-        <v>0.06014047982217352</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.401300088170972</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N14">
-        <v>0.401300088170972</v>
+        <v>70.309682</v>
       </c>
       <c r="O14">
-        <v>0.005341692140345045</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P14">
-        <v>0.005341692140345045</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q14">
-        <v>1.140063473406884</v>
+        <v>92.56936796060312</v>
       </c>
       <c r="R14">
-        <v>1.140063473406884</v>
+        <v>833.1243116454281</v>
       </c>
       <c r="S14">
-        <v>0.000321251928382684</v>
+        <v>0.02354415564356552</v>
       </c>
       <c r="T14">
-        <v>0.000321251928382684</v>
+        <v>0.02354415564356551</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.84092505088403</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H15">
-        <v>2.84092505088403</v>
+        <v>11.849354</v>
       </c>
       <c r="I15">
-        <v>0.06014047982217352</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J15">
-        <v>0.06014047982217352</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.4340792702359</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N15">
-        <v>23.4340792702359</v>
+        <v>161.00704</v>
       </c>
       <c r="O15">
-        <v>0.3119302505627921</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P15">
-        <v>0.3119302505627921</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q15">
-        <v>66.57446284321531</v>
+        <v>211.981045939129</v>
       </c>
       <c r="R15">
-        <v>66.57446284321531</v>
+        <v>1907.82941345216</v>
       </c>
       <c r="S15">
-        <v>0.01875963493989713</v>
+        <v>0.05391540256816664</v>
       </c>
       <c r="T15">
-        <v>0.01875963493989713</v>
+        <v>0.05391540256816662</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.84092505088403</v>
+        <v>3.949784666666667</v>
       </c>
       <c r="H16">
-        <v>2.84092505088403</v>
+        <v>11.849354</v>
       </c>
       <c r="I16">
-        <v>0.06014047982217352</v>
+        <v>0.07843565958645965</v>
       </c>
       <c r="J16">
-        <v>0.06014047982217352</v>
+        <v>0.07843565958645964</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.8685390322163</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N16">
-        <v>50.8685390322163</v>
+        <v>1.290893</v>
       </c>
       <c r="O16">
-        <v>0.6771094329375232</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P16">
-        <v>0.6771094329375232</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q16">
-        <v>144.5137068384954</v>
+        <v>1.699583125902445</v>
       </c>
       <c r="R16">
-        <v>144.5137068384954</v>
+        <v>15.296248133122</v>
       </c>
       <c r="S16">
-        <v>0.04072168618898247</v>
+        <v>0.0004322731215195829</v>
       </c>
       <c r="T16">
-        <v>0.04072168618898247</v>
+        <v>0.0004322731215195827</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.742477666666666</v>
+      </c>
+      <c r="H17">
+        <v>8.227433</v>
+      </c>
+      <c r="I17">
+        <v>0.05446070174444989</v>
+      </c>
+      <c r="J17">
+        <v>0.05446070174444988</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.403827</v>
+      </c>
+      <c r="N17">
+        <v>1.211481</v>
+      </c>
+      <c r="O17">
+        <v>0.005172149156755268</v>
+      </c>
+      <c r="P17">
+        <v>0.005172149156755267</v>
+      </c>
+      <c r="Q17">
+        <v>1.107486528697</v>
+      </c>
+      <c r="R17">
+        <v>9.967378758273</v>
+      </c>
+      <c r="S17">
+        <v>0.0002816788726038566</v>
+      </c>
+      <c r="T17">
+        <v>0.0002816788726038566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.742477666666666</v>
+      </c>
+      <c r="H18">
+        <v>8.227433</v>
+      </c>
+      <c r="I18">
+        <v>0.05446070174444989</v>
+      </c>
+      <c r="J18">
+        <v>0.05446070174444988</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.137516</v>
+      </c>
+      <c r="N18">
+        <v>0.412548</v>
+      </c>
+      <c r="O18">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P18">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q18">
+        <v>0.3771345588093333</v>
+      </c>
+      <c r="R18">
+        <v>3.394211029284</v>
+      </c>
+      <c r="S18">
+        <v>9.592065871026937E-05</v>
+      </c>
+      <c r="T18">
+        <v>9.592065871026936E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.742477666666666</v>
+      </c>
+      <c r="H19">
+        <v>8.227433</v>
+      </c>
+      <c r="I19">
+        <v>0.05446070174444989</v>
+      </c>
+      <c r="J19">
+        <v>0.05446070174444988</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N19">
+        <v>70.309682</v>
+      </c>
+      <c r="O19">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P19">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q19">
+        <v>64.27424421181176</v>
+      </c>
+      <c r="R19">
+        <v>578.4681979063059</v>
+      </c>
+      <c r="S19">
+        <v>0.01634755473581152</v>
+      </c>
+      <c r="T19">
+        <v>0.01634755473581151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.742477666666666</v>
+      </c>
+      <c r="H20">
+        <v>8.227433</v>
+      </c>
+      <c r="I20">
+        <v>0.05446070174444989</v>
+      </c>
+      <c r="J20">
+        <v>0.05446070174444988</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N20">
+        <v>161.00704</v>
+      </c>
+      <c r="O20">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P20">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q20">
+        <v>147.1860704587022</v>
+      </c>
+      <c r="R20">
+        <v>1324.67463412832</v>
+      </c>
+      <c r="S20">
+        <v>0.03743540468937116</v>
+      </c>
+      <c r="T20">
+        <v>0.03743540468937114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.742477666666666</v>
+      </c>
+      <c r="H21">
+        <v>8.227433</v>
+      </c>
+      <c r="I21">
+        <v>0.05446070174444989</v>
+      </c>
+      <c r="J21">
+        <v>0.05446070174444988</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.290893</v>
+      </c>
+      <c r="O21">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P21">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q21">
+        <v>1.180081740852111</v>
+      </c>
+      <c r="R21">
+        <v>10.620735667669</v>
+      </c>
+      <c r="S21">
+        <v>0.0003001427879531006</v>
+      </c>
+      <c r="T21">
+        <v>0.0003001427879531005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H22">
+        <v>9.156113</v>
+      </c>
+      <c r="I22">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J22">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.403827</v>
+      </c>
+      <c r="N22">
+        <v>1.211481</v>
+      </c>
+      <c r="O22">
+        <v>0.005172149156755268</v>
+      </c>
+      <c r="P22">
+        <v>0.005172149156755267</v>
+      </c>
+      <c r="Q22">
+        <v>1.232495214817</v>
+      </c>
+      <c r="R22">
+        <v>11.092456933353</v>
+      </c>
+      <c r="S22">
+        <v>0.0003134736663639213</v>
+      </c>
+      <c r="T22">
+        <v>0.0003134736663639212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H23">
+        <v>9.156113</v>
+      </c>
+      <c r="I23">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J23">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.137516</v>
+      </c>
+      <c r="N23">
+        <v>0.412548</v>
+      </c>
+      <c r="O23">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P23">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q23">
+        <v>0.4197040117693333</v>
+      </c>
+      <c r="R23">
+        <v>3.777336105924</v>
+      </c>
+      <c r="S23">
+        <v>0.0001067478021620669</v>
+      </c>
+      <c r="T23">
+        <v>0.0001067478021620669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H24">
+        <v>9.156113</v>
+      </c>
+      <c r="I24">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J24">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N24">
+        <v>70.309682</v>
+      </c>
+      <c r="O24">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P24">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q24">
+        <v>71.5292659317851</v>
+      </c>
+      <c r="R24">
+        <v>643.7633933860659</v>
+      </c>
+      <c r="S24">
+        <v>0.01819280186599823</v>
+      </c>
+      <c r="T24">
+        <v>0.01819280186599822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.84092505088403</v>
-      </c>
-      <c r="H17">
-        <v>2.84092505088403</v>
-      </c>
-      <c r="I17">
-        <v>0.06014047982217352</v>
-      </c>
-      <c r="J17">
-        <v>0.06014047982217352</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.422104904506321</v>
-      </c>
-      <c r="N17">
-        <v>0.422104904506321</v>
-      </c>
-      <c r="O17">
-        <v>0.005618624359339496</v>
-      </c>
-      <c r="P17">
-        <v>0.005618624359339496</v>
-      </c>
-      <c r="Q17">
-        <v>1.199168397313018</v>
-      </c>
-      <c r="R17">
-        <v>1.199168397313018</v>
-      </c>
-      <c r="S17">
-        <v>0.0003379067649112296</v>
-      </c>
-      <c r="T17">
-        <v>0.0003379067649112296</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H25">
+        <v>9.156113</v>
+      </c>
+      <c r="I25">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J25">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N25">
+        <v>161.00704</v>
+      </c>
+      <c r="O25">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P25">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q25">
+        <v>163.7998502261689</v>
+      </c>
+      <c r="R25">
+        <v>1474.19865203552</v>
+      </c>
+      <c r="S25">
+        <v>0.04166096466985659</v>
+      </c>
+      <c r="T25">
+        <v>0.04166096466985657</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.052037666666667</v>
+      </c>
+      <c r="H26">
+        <v>9.156113</v>
+      </c>
+      <c r="I26">
+        <v>0.0606080097196149</v>
+      </c>
+      <c r="J26">
+        <v>0.06060800971961489</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.290893</v>
+      </c>
+      <c r="O26">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P26">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q26">
+        <v>1.313284686545445</v>
+      </c>
+      <c r="R26">
+        <v>11.819562178909</v>
+      </c>
+      <c r="S26">
+        <v>0.0003340217152340989</v>
+      </c>
+      <c r="T26">
+        <v>0.0003340217152340988</v>
       </c>
     </row>
   </sheetData>
